--- a/datf_core/test/testprotocol/test_snowflake_oracle.xlsx
+++ b/datf_core/test/testprotocol/test_snowflake_oracle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil.gupta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE077C-C7EF-4A4C-AAB7-34CB8BF90B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72119DAB-7757-4D33-B6BE-BABE549880DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="config" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">protocoltestcasedetails!$A$1:$AI$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">protocoltestcasedetails!$A$1:$AI$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>Sno.</t>
   </si>
@@ -67,18 +67,6 @@
     <t>protocol_version</t>
   </si>
   <si>
-    <t>testcase2_parquet_parquet_match</t>
-  </si>
-  <si>
-    <t>testcase1_parquet_parquet_mismatch</t>
-  </si>
-  <si>
-    <t>testcase11_parquet_parquet_match_manual</t>
-  </si>
-  <si>
-    <t>testcase12_parquet_parquet_mismatch_manual</t>
-  </si>
-  <si>
     <t>testcase23_parquet_snowflake_mismatch</t>
   </si>
   <si>
@@ -370,33 +358,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>rawpatients</t>
-  </si>
-  <si>
-    <t>RawS3Bucket</t>
-  </si>
-  <si>
-    <t>patient_source_parquet_manuel.sql</t>
-  </si>
-  <si>
-    <t>curatedpatients</t>
-  </si>
-  <si>
-    <t>CuratedS3Bucket</t>
-  </si>
-  <si>
-    <t>patient_target_parquet_manuel_match.sql</t>
-  </si>
-  <si>
-    <t>patient_target_parquet_manuel_mismatch.sql</t>
-  </si>
-  <si>
     <t>patients_target_parquet_mismatch</t>
   </si>
   <si>
-    <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
-  </si>
-  <si>
     <t>test/data/source</t>
   </si>
   <si>
@@ -446,12 +410,6 @@
   </si>
   <si>
     <t>test/s2t/s2t_31_snowflake_parquet_val.xlsx</t>
-  </si>
-  <si>
-    <t>test/s2t/s2t_1_parquet_parquet_mismatch.xlsx</t>
-  </si>
-  <si>
-    <t>test/s2t/s2t_2_parquet_parquet_match.xlsx</t>
   </si>
   <si>
     <t>testcase32_snowflake_snowflake_validation</t>
@@ -945,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,11 +953,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,161 +1008,184 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="AF2" s="2"/>
       <c r="AG2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>5</v>
+        <v>104</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>8</v>
       </c>
       <c r="AJ2" s="2">
         <v>1000</v>
@@ -1215,54 +1196,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="13"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>8</v>
       </c>
       <c r="AJ3" s="2">
         <v>1000</v>
@@ -1273,89 +1276,78 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="N4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y4" s="2"/>
+        <v>100</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI4" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="14">
         <v>5</v>
       </c>
       <c r="AJ4" s="2">
@@ -1367,87 +1359,79 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="O5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>96</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AF5" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AG5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI5" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="14">
         <v>8</v>
       </c>
       <c r="AJ5" s="2">
@@ -1458,75 +1442,78 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="S6" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="W6" s="2"/>
-      <c r="X6" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="AI6" s="14">
         <v>8</v>
@@ -1540,73 +1527,77 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="S7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="U7" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="W7" s="2"/>
-      <c r="X7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="13"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AI7" s="14">
         <v>8</v>
@@ -1620,63 +1611,55 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1684,18 +1667,20 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
+      <c r="AF8" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="AG8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="AI8" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ8" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -1703,285 +1688,165 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="W9" s="2"/>
       <c r="X9" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AF9" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
       <c r="AG9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="AI9" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ9" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI10" s="14">
-        <v>8</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>119</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI11" s="14">
-        <v>8</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1989,76 +1854,37 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>8</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>2000</v>
-      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2066,22 +1892,12 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -2090,226 +1906,42 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="2"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI11" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
+  <autoFilter ref="A1:AI7" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y10:Y11 Y2:Y5 C2:C9 L2:L11" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y7 L2:L7 C2:C5" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 U6:U7 H12:H13 U13" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 U2:U3 H8:H9 U9" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
       <formula1>"aws-s3,redshift,oracle,mysql,snowflake"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D13 D5:D9" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D2:D5" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
       <formula1>"s2tcompare,likeobjectcompare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H11 U8:U11" xr:uid="{FDFAED56-C639-4DEC-9D7C-4A42D9CC2D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7 U4:U7" xr:uid="{FDFAED56-C639-4DEC-9D7C-4A42D9CC2D05}">
       <formula1>"aws-s3,redshift,oracle,mysql"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U12" xr:uid="{D1C20DA2-8C85-451B-8BBB-FCF3F28EE6B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8" xr:uid="{D1C20DA2-8C85-451B-8BBB-FCF3F28EE6B4}">
       <formula1>"aws-s3,redshift,oracle,mysql,bigquery"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6 U3:U5" xr:uid="{3EA29DA5-B24B-4A2B-9AC1-8BA4A560D50C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{3EA29DA5-B24B-4A2B-9AC1-8BA4A560D50C}">
       <formula1>"aws-s3,redshift,oracle"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 V3:V13" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 V2:V9" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
       <formula1>"avro,json,parquet,delimitedfile,delta,table"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13 P2:P11 AC2:AC11" xr:uid="{52AC5FA5-2B55-4263-A486-B93E336849C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9 AC2:AC7 P2:P7" xr:uid="{52AC5FA5-2B55-4263-A486-B93E336849C8}">
       <formula1>"Auto,Manual"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4376D994-0D04-4F55-892A-55A328F32CEE}">
-          <x14:formula1>
-            <xm:f>config!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60062090-6690-4B11-B897-7133E606A12B}">
-          <x14:formula1>
-            <xm:f>config!$D$2:$D$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2 V2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2153F23C-BB87-46DD-B72C-5F54E9657B4C}">
-          <x14:formula1>
-            <xm:f>config!$E$2:$E$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2 U2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2333,120 +1965,120 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/datf_core/test/testprotocol/test_snowflake_oracle.xlsx
+++ b/datf_core/test/testprotocol/test_snowflake_oracle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72119DAB-7757-4D33-B6BE-BABE549880DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8F3A72-FDB8-4471-92B4-A92414D54B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>119</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>57</v>
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="AJ9" s="2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
